--- a/265-rc---task---supprimer-le-typedroitprestation/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/265-rc---task---supprimer-le-typedroitprestation/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T13:30:53+00:00</t>
+    <t>2024-12-04T13:46:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/265-rc---task---supprimer-le-typedroitprestation/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/265-rc---task---supprimer-le-typedroitprestation/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T13:46:01+00:00</t>
+    <t>2024-12-04T14:25:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
